--- a/Journals.xlsx
+++ b/Journals.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\university\Thesis\Proposal\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Thesis\EGG-Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC4E808-7DCC-493F-839F-4CB3DC7A81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA3328-0C99-4A95-84FF-69E8914EA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA83C8B-E56B-4CD7-996F-08DC64D9B24A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA83C8B-E56B-4CD7-996F-08DC64D9B24A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jurnals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>Journal</t>
   </si>
@@ -226,6 +227,30 @@
   </si>
   <si>
     <t xml:space="preserve">8.050	</t>
+  </si>
+  <si>
+    <t>Ageing Research Reviews</t>
+  </si>
+  <si>
+    <t>Alzheimer's Research &amp; Therapy</t>
+  </si>
+  <si>
+    <t>American Family Physician</t>
+  </si>
+  <si>
+    <t>BMC Neurology</t>
+  </si>
+  <si>
+    <t>Brain Informatics</t>
+  </si>
+  <si>
+    <t>Frontiers in Computer Science</t>
+  </si>
+  <si>
+    <t>Genome Medicine</t>
+  </si>
+  <si>
+    <t>International Journal of Alzheimer’s Disease</t>
   </si>
 </sst>
 </file>
@@ -592,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269CDEE-6215-4B47-B1A7-44909E585845}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,13 +680,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>21693536</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -670,21 +695,21 @@
         <v>55</v>
       </c>
       <c r="F3">
-        <v>4.4720000000000004</v>
+        <v>3.476</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>21693536</v>
+      <c r="C4" t="s">
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -693,44 +718,29 @@
         <v>55</v>
       </c>
       <c r="F4">
-        <v>3.476</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>20763417</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5">
-        <v>2.6789999999999998</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>9410643</v>
+        <v>20763417</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -739,62 +749,77 @@
         <v>55</v>
       </c>
       <c r="F6">
-        <v>5.6059999999999999</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>8936080</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="C8">
+        <v>9410643</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8936080</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -802,7 +827,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -810,7 +835,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -818,7 +843,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -826,7 +851,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -834,7 +859,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -842,7 +867,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -850,7 +875,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -858,7 +883,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -866,7 +891,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -874,7 +899,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -882,7 +907,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -890,7 +915,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -898,7 +923,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -906,7 +931,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -914,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -922,7 +947,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -930,7 +955,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -938,7 +963,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -946,7 +971,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -954,7 +979,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -962,7 +987,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -970,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -978,7 +1003,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -986,7 +1011,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -994,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1002,7 +1027,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1010,7 +1035,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1018,7 +1043,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1026,7 +1051,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1034,7 +1059,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1042,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1050,7 +1075,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1058,7 +1083,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1066,7 +1091,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1074,7 +1099,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1082,19 +1107,268 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B55">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{C269CDEE-6215-4B47-B1A7-44909E585845}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B47">
-    <sortCondition descending="1" ref="B1:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G55">
+    <sortCondition descending="1" ref="B1:B55"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9765E729-D2AE-4956-90F1-163C0F08539F}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>4.4720000000000004</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>21693536</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>3.476</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>20763417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>9410643</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>8936080</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Journals.xlsx
+++ b/Journals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Thesis\EGG-Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\university\Thesis\Proposal\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA3328-0C99-4A95-84FF-69E8914EA175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7462DBC1-3773-4428-BC9F-CDB7D83F345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA83C8B-E56B-4CD7-996F-08DC64D9B24A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA83C8B-E56B-4CD7-996F-08DC64D9B24A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Journal</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>International Journal of Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>Alzheimer's and Dementia</t>
+  </si>
+  <si>
+    <t>21.566</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.823	</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>1387-2877</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>2.903</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in Medicine</t>
+  </si>
+  <si>
+    <t>0933-3657</t>
+  </si>
+  <si>
+    <t>5.326</t>
   </si>
 </sst>
 </file>
@@ -274,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,9 +348,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269CDEE-6215-4B47-B1A7-44909E585845}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,91 +710,100 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>15525279</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>5.0999999999999996</v>
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
+      <c r="A3" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>21693536</v>
+        <v>17589193</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3">
-        <v>3.476</v>
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>8936080</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4">
-        <v>4.4720000000000004</v>
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
       </c>
       <c r="G4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>20763417</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -749,29 +812,44 @@
         <v>55</v>
       </c>
       <c r="F6">
-        <v>2.6789999999999998</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>21693536</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>3.476</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
+      <c r="A8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>9410643</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -780,70 +858,100 @@
         <v>55</v>
       </c>
       <c r="F8">
-        <v>5.6059999999999999</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>8936080</v>
+        <v>20763417</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>2.6789999999999998</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
+      <c r="A10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="C10">
+        <v>9410643</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="C11">
+        <v>14712377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -851,7 +959,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -859,7 +967,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -867,7 +975,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -875,7 +983,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -883,7 +991,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -891,7 +999,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -899,7 +1007,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -907,7 +1015,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -915,7 +1023,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -923,7 +1031,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -931,7 +1039,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -939,7 +1047,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -947,7 +1055,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -955,7 +1063,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -963,7 +1071,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -971,7 +1079,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -979,7 +1087,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -987,7 +1095,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -995,7 +1103,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1003,7 +1111,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1011,7 +1119,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1019,7 +1127,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1027,7 +1135,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1035,7 +1143,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1043,7 +1151,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1051,7 +1159,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1059,7 +1167,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1067,7 +1175,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1075,7 +1183,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1083,7 +1191,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1091,7 +1199,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1099,7 +1207,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1107,7 +1215,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1115,7 +1223,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1123,7 +1231,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1131,7 +1239,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1139,7 +1247,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1147,7 +1255,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1155,7 +1263,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1163,7 +1271,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1171,16 +1279,32 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>46</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{C269CDEE-6215-4B47-B1A7-44909E585845}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G55">
-    <sortCondition descending="1" ref="B1:B55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
+    <sortCondition ref="E1:E60"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
